--- a/202203.xlsx
+++ b/202203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845DD821-9E1F-4C30-8F07-4855FD7380D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E3B33-1B90-4395-84BA-487315DF5256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
   <si>
     <t xml:space="preserve">                                         
 </t>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">休 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1421,7 +1429,7 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1827,7 +1835,9 @@
       </c>
       <c r="Z7" s="72"/>
       <c r="AA7" s="73"/>
-      <c r="AB7" s="75"/>
+      <c r="AB7" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="AC7" s="75" t="s">
         <v>18</v>
       </c>
@@ -2000,27 +2010,27 @@
       <c r="H10" s="89"/>
       <c r="I10" s="88"/>
       <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
+      <c r="K10" s="88" t="s">
+        <v>19</v>
+      </c>
       <c r="L10" s="88" t="s">
         <v>19</v>
       </c>
       <c r="M10" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="89" t="s">
-        <v>18</v>
-      </c>
+      <c r="N10" s="89"/>
       <c r="O10" s="89"/>
       <c r="P10" s="88"/>
       <c r="Q10" s="88" t="s">
         <v>18</v>
       </c>
       <c r="R10" s="88"/>
-      <c r="S10" s="88" t="s">
-        <v>19</v>
-      </c>
+      <c r="S10" s="88"/>
       <c r="T10" s="88"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="89" t="s">
+        <v>22</v>
+      </c>
       <c r="V10" s="89" t="s">
         <v>19</v>
       </c>

--- a/202203.xlsx
+++ b/202203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E3B33-1B90-4395-84BA-487315DF5256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57AA121-95F6-4B53-B880-1DF975D9EBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1860,14 +1860,14 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
-      <c r="E8" s="79" t="s">
-        <v>18</v>
-      </c>
+      <c r="E8" s="79"/>
       <c r="F8" s="79"/>
       <c r="G8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="81" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="69" t="s">
         <v>18</v>
       </c>

--- a/202203.xlsx
+++ b/202203.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spp72\Desktop\python\coding\class_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57AA121-95F6-4B53-B880-1DF975D9EBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1B89F-A044-4633-AF17-343FFD4654EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>

--- a/202203.xlsx
+++ b/202203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spp72\Desktop\python\coding\class_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1B89F-A044-4633-AF17-343FFD4654EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DED16F8-EEF0-4B3C-AC07-40BE7C7B4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
   <si>
     <t xml:space="preserve">                                         
 </t>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>事假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">休 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1429,7 +1425,7 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2029,7 +2025,7 @@
       <c r="S10" s="88"/>
       <c r="T10" s="88"/>
       <c r="U10" s="89" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V10" s="89" t="s">
         <v>19</v>

--- a/202203.xlsx
+++ b/202203.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spp72\Desktop\python\coding\class_schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DED16F8-EEF0-4B3C-AC07-40BE7C7B4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F841B06C-70E1-41F4-B796-A1B80799F830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
   <si>
     <t xml:space="preserve">                                         
 </t>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>事假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">休 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1429,7 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1873,9 +1877,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="79"/>
-      <c r="N8" s="80" t="s">
-        <v>19</v>
-      </c>
+      <c r="N8" s="80"/>
       <c r="O8" s="80" t="s">
         <v>18</v>
       </c>
@@ -1883,12 +1885,14 @@
         <v>19</v>
       </c>
       <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79" t="s">
-        <v>18</v>
-      </c>
+      <c r="R8" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="79"/>
       <c r="T8" s="79"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="80" t="s">
+        <v>19</v>
+      </c>
       <c r="V8" s="80"/>
       <c r="W8" s="79" t="s">
         <v>18</v>
@@ -2025,7 +2029,7 @@
       <c r="S10" s="88"/>
       <c r="T10" s="88"/>
       <c r="U10" s="89" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="V10" s="89" t="s">
         <v>19</v>

--- a/202203.xlsx
+++ b/202203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F841B06C-70E1-41F4-B796-A1B80799F830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0EFBC4-8CD4-4B4B-BA04-04C4391525F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1761,7 +1761,9 @@
       <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="68"/>
+      <c r="V6" s="68" t="s">
+        <v>20</v>
+      </c>
       <c r="W6" s="66"/>
       <c r="X6" s="66"/>
       <c r="Y6" s="66"/>
@@ -1773,9 +1775,7 @@
         <v>18</v>
       </c>
       <c r="AC6" s="68"/>
-      <c r="AD6" s="69" t="s">
-        <v>20</v>
-      </c>
+      <c r="AD6" s="69"/>
       <c r="AE6" s="65" t="s">
         <v>18</v>
       </c>
@@ -1877,10 +1877,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80" t="s">
-        <v>18</v>
-      </c>
+      <c r="N8" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="80"/>
       <c r="P8" s="79" t="s">
         <v>19</v>
       </c>
